--- a/Naive_v_Mlut_expcoefandCIs.xlsx
+++ b/Naive_v_Mlut_expcoefandCIs.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,28 +421,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>7.707125735699567</v>
+        <v>16.58342592902631</v>
       </c>
       <c r="C2">
-        <v>1.239238160458338</v>
+        <v>18.46194796571989</v>
       </c>
       <c r="D2">
         <v>0.95</v>
       </c>
       <c r="E2">
-        <v>5.607869664711453</v>
+        <v>1.836139723317373</v>
       </c>
       <c r="F2">
-        <v>10.59221962301775</v>
+        <v>149.7761918938492</v>
       </c>
       <c r="G2">
-        <v>12.70060208184599</v>
+        <v>2.522645811574166</v>
       </c>
       <c r="H2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I2">
-        <v>7.368868361614501e-25</v>
+        <v>0.01275003273637074</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="B3">
-        <v>11.72922776828702</v>
+        <v>22.74202842432767</v>
       </c>
       <c r="C3">
-        <v>11.32871404795742</v>
+        <v>30.52649864196422</v>
       </c>
       <c r="D3">
         <v>0.95</v>
       </c>
       <c r="E3">
-        <v>1.736810015713363</v>
+        <v>1.601198242264904</v>
       </c>
       <c r="F3">
-        <v>79.21118763461816</v>
+        <v>323.0080093776181</v>
       </c>
       <c r="G3">
-        <v>2.549127982617518</v>
+        <v>2.327518134481211</v>
       </c>
       <c r="H3">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I3">
-        <v>0.01190886568028738</v>
+        <v>0.02135077640107548</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -493,28 +493,28 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.128627704167897</v>
+        <v>0.07911106336079798</v>
       </c>
       <c r="C4">
-        <v>0.09250690352561587</v>
+        <v>0.05708768148846253</v>
       </c>
       <c r="D4">
         <v>0.95</v>
       </c>
       <c r="E4">
-        <v>0.03102190066946572</v>
+        <v>0.01899845152562306</v>
       </c>
       <c r="F4">
-        <v>0.5333356732648246</v>
+        <v>0.3294247606251132</v>
       </c>
       <c r="G4">
-        <v>-2.851613644655181</v>
+        <v>-3.515593084551526</v>
       </c>
       <c r="H4">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I4">
-        <v>0.00502886523174205</v>
+        <v>0.000589303054632246</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -529,28 +529,28 @@
         </is>
       </c>
       <c r="B5">
-        <v>5.704802813422983</v>
+        <v>3341.890965035329</v>
       </c>
       <c r="C5">
-        <v>3.915013277839809</v>
+        <v>30574.99078099826</v>
       </c>
       <c r="D5">
         <v>0.95</v>
       </c>
       <c r="E5">
-        <v>1.468402865381288</v>
+        <v>4.670918901339249e-05</v>
       </c>
       <c r="F5">
-        <v>22.16338302471792</v>
+        <v>239101458579.8653</v>
       </c>
       <c r="G5">
-        <v>2.537365894364547</v>
+        <v>0.8869039272631896</v>
       </c>
       <c r="H5">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I5">
-        <v>0.01229736951512255</v>
+        <v>0.3766302648440739</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -565,28 +565,28 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.3450525933146361</v>
+        <v>0.3016289019598016</v>
       </c>
       <c r="C6">
-        <v>0.2326684820077417</v>
+        <v>0.1980840367588901</v>
       </c>
       <c r="D6">
         <v>0.95</v>
       </c>
       <c r="E6">
-        <v>0.09094276737182763</v>
+        <v>0.08235154831394192</v>
       </c>
       <c r="F6">
-        <v>1.309189236196902</v>
+        <v>1.104775761478584</v>
       </c>
       <c r="G6">
-        <v>-1.578022589300656</v>
+        <v>-1.825082347336894</v>
       </c>
       <c r="H6">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I6">
-        <v>0.1168836065810113</v>
+        <v>0.07009011849951757</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -601,28 +601,28 @@
         </is>
       </c>
       <c r="B7">
-        <v>2.158683273556361</v>
+        <v>93.99836538051161</v>
       </c>
       <c r="C7">
-        <v>0.2365642171982092</v>
+        <v>140.7623789320262</v>
       </c>
       <c r="D7">
         <v>0.95</v>
       </c>
       <c r="E7">
-        <v>1.738083281843292</v>
+        <v>4.869574553297754</v>
       </c>
       <c r="F7">
-        <v>2.681064552090981</v>
+        <v>1814.469128155044</v>
       </c>
       <c r="G7">
-        <v>7.021786437739272</v>
+        <v>3.033911842141704</v>
       </c>
       <c r="H7">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I7">
-        <v>9.502146272886011e-11</v>
+        <v>0.00287144422129224</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -637,28 +637,28 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.9678718594279603</v>
+        <v>0.996771623117761</v>
       </c>
       <c r="C8">
-        <v>0.05169620790196725</v>
+        <v>0.004768657872790899</v>
       </c>
       <c r="D8">
         <v>0.95</v>
       </c>
       <c r="E8">
-        <v>0.870853480811401</v>
+        <v>0.9873893231965635</v>
       </c>
       <c r="F8">
-        <v>1.075698675969825</v>
+        <v>1.006243074855515</v>
       </c>
       <c r="G8">
-        <v>-0.6113874770231823</v>
+        <v>-0.6759050748844577</v>
       </c>
       <c r="H8">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I8">
-        <v>0.5419636944233398</v>
+        <v>0.5002002270507057</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -673,28 +673,28 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.7578894933612549</v>
+        <v>0.8813653948507576</v>
       </c>
       <c r="C9">
-        <v>0.08350210236336698</v>
+        <v>0.04447714434992756</v>
       </c>
       <c r="D9">
         <v>0.95</v>
       </c>
       <c r="E9">
-        <v>0.6095101384798067</v>
+        <v>0.7976857134889016</v>
       </c>
       <c r="F9">
-        <v>0.9423903687311834</v>
+        <v>0.9738233318017669</v>
       </c>
       <c r="G9">
-        <v>-2.516108810491726</v>
+        <v>-2.502441602675281</v>
       </c>
       <c r="H9">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I9">
-        <v>0.01302838472734557</v>
+        <v>0.01346779819021036</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -709,19 +709,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.3636442786051133</v>
+        <v>0.3564516832189756</v>
       </c>
       <c r="C10">
-        <v>0.1256577167168018</v>
+        <v>0.1171400226755644</v>
       </c>
       <c r="D10">
         <v>0.95</v>
       </c>
       <c r="E10">
-        <v>0.1847323881194134</v>
+        <v>0.1871853965967983</v>
       </c>
       <c r="F10">
-        <v>0.7158309525926414</v>
+        <v>0.6787805287146752</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -730,30 +730,30 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sample_ID</t>
+          <t>Seeded_plates_OD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SD (Intercept)</t>
+          <t>SD (Observations)</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.3441776697197029</v>
+        <v>0.6397975520175373</v>
       </c>
       <c r="C11">
-        <v>0.1145128918870662</v>
+        <v>0.03744039391371905</v>
       </c>
       <c r="D11">
         <v>0.95</v>
       </c>
       <c r="E11">
-        <v>0.1792980710288883</v>
+        <v>0.5704676259509336</v>
       </c>
       <c r="F11">
-        <v>0.6606778737435441</v>
+        <v>0.7175532649820185</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -761,38 +761,6 @@
         </is>
       </c>
       <c r="K11" t="inlineStr">
-        <is>
-          <t>Seeded_plates_OD</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SD (Observations)</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>0.5230200744819141</v>
-      </c>
-      <c r="C12">
-        <v>0.08508814552432797</v>
-      </c>
-      <c r="D12">
-        <v>0.95</v>
-      </c>
-      <c r="E12">
-        <v>0.3802240806358487</v>
-      </c>
-      <c r="F12">
-        <v>0.7194441705365147</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>random</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>Residual</t>
         </is>
